--- a/test_data/excel_colored.xlsx
+++ b/test_data/excel_colored.xlsx
@@ -1,34 +1,65 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <sz val="6"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <color rgb="00FF0000"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -44,21 +75,22 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="標準" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -343,37 +375,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1"/>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1"/>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>